--- a/docs/statistics.xlsx
+++ b/docs/statistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Feup\3ANO\RCOM\lab1-code-25-26-deniz\lab1-code-25-26\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26F9F1BE-0EBF-4466-ACF3-F470F310AB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D6B182-C9BA-4516-9045-EF862085F23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EADB7CA2-938E-4F7B-80E6-BB7B094AF1A6}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EADB7CA2-938E-4F7B-80E6-BB7B094AF1A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,45 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Baud</t>
-  </si>
-  <si>
-    <t>Prop_delay_us</t>
-  </si>
-  <si>
-    <t>BER</t>
-  </si>
-  <si>
-    <t>File_size_bytes</t>
-  </si>
-  <si>
-    <t>TX_bytes_sent_total</t>
-  </si>
-  <si>
-    <t>RX_bytes_sent_total</t>
-  </si>
-  <si>
-    <t>RX_data_bytes</t>
-  </si>
-  <si>
-    <t>T_payload_s</t>
-  </si>
-  <si>
-    <t>T_full_s</t>
-  </si>
-  <si>
-    <t>Throughput_R_bps</t>
-  </si>
-  <si>
-    <t>Channel_C_bps</t>
-  </si>
-  <si>
-    <t>Measured_S</t>
-  </si>
-  <si>
-    <t>Practical_S</t>
   </si>
   <si>
     <t>Frame_size_bits</t>
@@ -83,16 +47,31 @@
     <t>FER</t>
   </si>
   <si>
-    <t>T_frame_s</t>
+    <t>Prop_delay_ms</t>
   </si>
   <si>
-    <t>a</t>
+    <t>BCC1_ERROR_PROB</t>
   </si>
   <si>
-    <t>Theoretical_S</t>
+    <t>BCC2_ERROR_PROB</t>
   </si>
   <si>
-    <t>Measured to Theoretical</t>
+    <t>Filesize</t>
+  </si>
+  <si>
+    <t>Prop ratio (a)</t>
+  </si>
+  <si>
+    <t>Measured Efficiency</t>
+  </si>
+  <si>
+    <t>Measured Throughput</t>
+  </si>
+  <si>
+    <t>Execution Time</t>
+  </si>
+  <si>
+    <t>Theoretical Efficiency</t>
   </si>
 </sst>
 </file>
@@ -165,67 +144,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>BER</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> with S</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -235,7 +154,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Baud = 9600</c:v>
+            <c:v>Measured, Baud = 9600</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -251,36 +170,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$4</c:f>
+              <c:f>Sheet1!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0000000000000001E-5</c:v>
+                  <c:v>0.14500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1E-4</c:v>
+                  <c:v>0.32500000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$4</c:f>
+              <c:f>Sheet1!$I$2:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.49365214660625367</c:v>
+                  <c:v>0.77530282191565614</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47219361483007211</c:v>
+                  <c:v>0.55665845118373358</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30961424833291129</c:v>
+                  <c:v>0.36965744887665791</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -288,7 +207,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3811-4D8C-A103-79063533C2C4}"/>
+              <c16:uniqueId val="{00000000-9C1C-4C1F-A168-B11DB25534EF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -296,7 +215,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Baud = 38400</c:v>
+            <c:v>Measured, Baud = 38400</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -312,36 +231,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$D$7</c:f>
+              <c:f>Sheet1!$F$5:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0000000000000001E-5</c:v>
+                  <c:v>0.14500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1E-4</c:v>
+                  <c:v>0.32500000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$5:$M$7</c:f>
+              <c:f>Sheet1!$I$5:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.86653245650706345</c:v>
+                  <c:v>0.7863945821715228</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72974856222821449</c:v>
+                  <c:v>0.35947257428772122</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40614045391001197</c:v>
+                  <c:v>8.962301578663337E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -349,7 +268,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3811-4D8C-A103-79063533C2C4}"/>
+              <c16:uniqueId val="{00000001-9C1C-4C1F-A168-B11DB25534EF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -357,7 +276,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Baud = 115200</c:v>
+            <c:v>Measured, Baud = 115200</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -373,7 +292,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$8:$D$10</c:f>
+              <c:f>Sheet1!$F$8:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -381,28 +300,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0000000000000001E-5</c:v>
+                  <c:v>0.14500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1E-4</c:v>
+                  <c:v>0.32500000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$8:$M$10</c:f>
+              <c:f>Sheet1!$I$8:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.85431959639594512</c:v>
+                  <c:v>0.76534875954885617</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77597467326981351</c:v>
+                  <c:v>0.11956127656699965</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.62376827872333884</c:v>
+                  <c:v>2.6241046764427827E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -410,7 +329,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3811-4D8C-A103-79063533C2C4}"/>
+              <c16:uniqueId val="{00000002-9C1C-4C1F-A168-B11DB25534EF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -418,7 +337,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Theoretical S</c:v>
+            <c:v>Theoretical, Baud = 9600</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -434,36 +353,36 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$4</c:f>
+              <c:f>Sheet1!$F$2:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0000000000000001E-5</c:v>
+                  <c:v>0.14500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1E-4</c:v>
+                  <c:v>0.32500000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$R$2:$R$4</c:f>
+              <c:f>Sheet1!$K$2:$K$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92081541191296179</c:v>
+                  <c:v>0.80660377358490565</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44376429148779062</c:v>
+                  <c:v>0.58695652173913049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -471,7 +390,129 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-3811-4D8C-A103-79063533C2C4}"/>
+              <c16:uniqueId val="{00000003-9C1C-4C1F-A168-B11DB25534EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Theoretical, Baud = 38400</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$5:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$5:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68951612903225801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.421875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9C1C-4C1F-A168-B11DB25534EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Theoretical, Baud = 115200</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$8:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32500000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$8:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49709302325581395</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2410714285714286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9C1C-4C1F-A168-B11DB25534EF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -484,165 +525,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1680995856"/>
-        <c:axId val="1681009296"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:v>Theoretical S, Baud = 38400</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent5"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$5:$D$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00E+00</c:formatCode>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0" formatCode="General">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1.0000000000000001E-5</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1E-4</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$R$5:$R$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.91853067202334437</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.44050235267400334</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="1"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000008-3811-4D8C-A103-79063533C2C4}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="5"/>
-                <c:order val="5"/>
-                <c:tx>
-                  <c:v>Theoretical S, Baud = 115200</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$8:$D$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00E+00</c:formatCode>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1.0000000000000001E-5</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1E-4</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$R$8:$R$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.92083525238497799</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.44268139356985264</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="1"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000009-3811-4D8C-A103-79063533C2C4}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-          </c:ext>
-        </c:extLst>
+        <c:axId val="1522189936"/>
+        <c:axId val="1522206736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1680995856"/>
+        <c:axId val="1522189936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -683,8 +570,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>BER</a:t>
+                  <a:t>FER (Frame</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Error Ratio)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -717,7 +609,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -754,12 +646,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1681009296"/>
+        <c:crossAx val="1522206736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1681009296"/>
+        <c:axId val="1522206736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -800,7 +692,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Measured S</a:t>
+                  <a:t>Efficiency</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -871,7 +763,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1680995856"/>
+        <c:crossAx val="1522189936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1518,23 +1410,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1210235</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70911480-126D-E724-36B9-CA85BEA6058C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30CCA987-CD1A-6526-1C79-F68BFF73BDFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1872,23 +1764,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960028D1-9D93-45DC-A460-DED27A033223}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
@@ -1896,66 +1789,42 @@
     <col min="19" max="19" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>1000*8</f>
         <v>8000</v>
@@ -1970,207 +1839,117 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <f>10968</f>
-        <v>10968</v>
-      </c>
-      <c r="F2">
-        <v>11207</v>
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="shared" ref="F2:F9" si="0">D2+E2*(1-D2)</f>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>11084</v>
+        <f>C2/1000 / ((A2*8)/B2)</f>
+        <v>0</v>
       </c>
       <c r="H2">
-        <f>11004</f>
-        <v>11004</v>
+        <f>$A$13*8/J2</f>
+        <v>7442.9070903902993</v>
       </c>
       <c r="I2">
-        <v>10.604364</v>
+        <f>H2/B2</f>
+        <v>0.77530282191565614</v>
       </c>
       <c r="J2">
-        <v>10.671459</v>
-      </c>
-      <c r="K2">
-        <f>(H2*8)/I2</f>
-        <v>8301.4879534501069</v>
-      </c>
-      <c r="L2">
-        <f>B2</f>
-        <v>9600</v>
-      </c>
-      <c r="M2">
-        <f>K2/L2</f>
-        <v>0.86473832848438614</v>
-      </c>
-      <c r="N2">
-        <f>H2/(F2+G2)</f>
-        <v>0.49365214660625367</v>
-      </c>
-      <c r="O2">
-        <f>1-((1-D2)^A2)</f>
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <f>A2/B2</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="Q2">
-        <f>(C2*0.000001)/P2</f>
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <f>(1-O2)/(1+(2*Q2))</f>
+        <v>11.788942</v>
+      </c>
+      <c r="K2" s="1">
+        <f>(1-F2)/(1+ (2*G2))</f>
         <v>1</v>
       </c>
-      <c r="S2">
-        <f>M2-R2</f>
-        <v>-0.13526167151561386</v>
-      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f t="shared" ref="A3:A10" si="0">1000*8</f>
+        <f t="shared" ref="A3:A10" si="1">1000*8</f>
         <v>8000</v>
       </c>
       <c r="B3">
         <v>9600</v>
       </c>
       <c r="C3">
-        <v>1041</v>
+        <v>200</v>
       </c>
       <c r="D3" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>0.05</v>
       </c>
       <c r="E3">
-        <f>10968</f>
-        <v>10968</v>
-      </c>
-      <c r="F3">
-        <v>12215</v>
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14500000000000002</v>
       </c>
       <c r="G3">
-        <v>11089</v>
+        <f t="shared" ref="G3:G10" si="2">C3/1000 / ((A3*8)/B3)</f>
+        <v>0.03</v>
       </c>
       <c r="H3">
-        <f>11004</f>
-        <v>11004</v>
+        <f t="shared" ref="H3:H10" si="3">$A$13*8/J3</f>
+        <v>5343.9211313638425</v>
       </c>
       <c r="I3">
-        <v>11.588031000000001</v>
+        <f t="shared" ref="I3:I10" si="4">H3/B3</f>
+        <v>0.55665845118373358</v>
       </c>
       <c r="J3">
-        <v>11.654705</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K10" si="1">(H3*8)/I3</f>
-        <v>7596.8039781736861</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L10" si="2">B3</f>
-        <v>9600</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M10" si="3">K3/L3</f>
-        <v>0.79133374772642562</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N10" si="4">H3/(F3+G3)</f>
-        <v>0.47219361483007211</v>
-      </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O10" si="5">1-((1-D3)^A3)</f>
-        <v>7.688402286191498E-2</v>
-      </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P10" si="6">A3/B3</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q10" si="7">(C3*0.000001)/P3</f>
-        <v>1.2492E-3</v>
-      </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R10" si="8">(1-O3)/(1+(2*Q3))</f>
-        <v>0.92081541191296179</v>
-      </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S10" si="9">M3-R3</f>
-        <v>-0.12948166418653617</v>
+        <v>16.419404</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K10" si="5">(1-F3)/(1+ (2*G3))</f>
+        <v>0.80660377358490565</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8000</v>
       </c>
       <c r="B4">
         <v>9600</v>
       </c>
       <c r="C4">
-        <v>5208</v>
+        <v>500</v>
       </c>
       <c r="D4" s="1">
-        <v>1E-4</v>
+        <v>0.1</v>
       </c>
       <c r="E4">
-        <f>10968</f>
-        <v>10968</v>
-      </c>
-      <c r="F4">
-        <v>24392</v>
+        <v>0.25</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32500000000000001</v>
       </c>
       <c r="G4">
-        <v>11149</v>
+        <f t="shared" si="2"/>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="H4">
-        <f>11004</f>
-        <v>11004</v>
+        <f t="shared" si="3"/>
+        <v>3548.7115092159161</v>
       </c>
       <c r="I4">
-        <v>23.397766000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.36965744887665791</v>
       </c>
       <c r="J4">
-        <v>23.508862000000001</v>
-      </c>
-      <c r="K4">
+        <v>24.725594000000001</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="5"/>
+        <v>0.58695652173913049</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
         <f t="shared" si="1"/>
-        <v>3762.4104797013524</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="2"/>
-        <v>9600</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="3"/>
-        <v>0.3919177583022242</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="4"/>
-        <v>0.30961424833291129</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="5"/>
-        <v>0.55068900988004521</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="6"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="7"/>
-        <v>6.2495999999999993E-3</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="8"/>
-        <v>0.44376429148779062</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="9"/>
-        <v>-5.1846533185566424E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="0"/>
         <v>8000</v>
       </c>
       <c r="B5">
@@ -2183,207 +1962,117 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <f>10968</f>
-        <v>10968</v>
-      </c>
-      <c r="F5">
-        <v>11207</v>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>11084</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H5">
-        <f>11004</f>
-        <v>11004</v>
+        <f t="shared" si="3"/>
+        <v>30197.551955386476</v>
       </c>
       <c r="I5">
-        <v>2.6456019999999998</v>
+        <f t="shared" si="4"/>
+        <v>0.7863945821715228</v>
       </c>
       <c r="J5">
-        <v>2.664377</v>
-      </c>
-      <c r="K5">
+        <v>2.9056660000000001</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
         <f t="shared" si="1"/>
-        <v>33274.846329871238</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="2"/>
-        <v>38400</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="3"/>
-        <v>0.86653245650706345</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="4"/>
-        <v>0.49365214660625367</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="6"/>
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="9"/>
-        <v>-0.13346754349293655</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="0"/>
         <v>8000</v>
       </c>
       <c r="B6" s="2">
         <v>38400</v>
       </c>
       <c r="C6">
-        <v>520</v>
+        <v>200</v>
       </c>
       <c r="D6" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>0.05</v>
       </c>
       <c r="E6">
-        <f>10968</f>
-        <v>10968</v>
-      </c>
-      <c r="F6">
-        <v>13237</v>
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14500000000000002</v>
       </c>
       <c r="G6">
-        <v>11094</v>
+        <f t="shared" si="2"/>
+        <v>0.12</v>
       </c>
       <c r="H6">
-        <f>11004</f>
-        <v>11004</v>
+        <f t="shared" si="3"/>
+        <v>13803.746852648495</v>
       </c>
       <c r="I6">
-        <v>3.1414930000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.35947257428772122</v>
       </c>
       <c r="J6">
-        <v>3.1614559999999998</v>
-      </c>
-      <c r="K6">
+        <v>6.356535</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="5"/>
+        <v>0.68951612903225801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
         <f t="shared" si="1"/>
-        <v>28022.344789563434</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="2"/>
-        <v>38400</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="3"/>
-        <v>0.72974856222821449</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="4"/>
-        <v>0.45226254572356256</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="5"/>
-        <v>7.688402286191498E-2</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="6"/>
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="7"/>
-        <v>2.4959999999999995E-3</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="8"/>
-        <v>0.91853067202334437</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="9"/>
-        <v>-0.18878210979512988</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="0"/>
         <v>8000</v>
       </c>
       <c r="B7" s="2">
         <v>38400</v>
       </c>
       <c r="C7">
-        <v>2083</v>
+        <v>500</v>
       </c>
       <c r="D7" s="1">
-        <v>1E-4</v>
+        <v>0.1</v>
       </c>
       <c r="E7">
-        <f>10968</f>
-        <v>10968</v>
-      </c>
-      <c r="F7">
-        <v>23335</v>
+        <v>0.25</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32500000000000001</v>
       </c>
       <c r="G7">
-        <v>11144</v>
+        <f t="shared" si="2"/>
+        <v>0.3</v>
       </c>
       <c r="H7">
-        <f>11004</f>
-        <v>11004</v>
+        <f t="shared" si="3"/>
+        <v>3441.5238062067215</v>
       </c>
       <c r="I7">
-        <v>5.6445990000000004</v>
+        <f t="shared" si="4"/>
+        <v>8.962301578663337E-2</v>
       </c>
       <c r="J7">
-        <v>5.6752739999999999</v>
-      </c>
-      <c r="K7">
+        <v>25.495683</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="5"/>
+        <v>0.421875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
         <f t="shared" si="1"/>
-        <v>15595.79343014446</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="2"/>
-        <v>38400</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="3"/>
-        <v>0.40614045391001197</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="4"/>
-        <v>0.31915078743583053</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="5"/>
-        <v>0.55068900988004521</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="6"/>
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="7"/>
-        <v>9.9983999999999993E-3</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="8"/>
-        <v>0.44050235267400334</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="9"/>
-        <v>-3.4361898763991372E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="0"/>
         <v>8000</v>
       </c>
       <c r="B8">
@@ -2396,202 +2085,122 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <f>10968</f>
-        <v>10968</v>
-      </c>
-      <c r="F8">
-        <v>11207</v>
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>11084</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H8">
-        <f>11004</f>
-        <v>11004</v>
+        <f t="shared" si="3"/>
+        <v>88168.177100028232</v>
       </c>
       <c r="I8">
-        <v>0.89447399999999999</v>
+        <f t="shared" si="4"/>
+        <v>0.76534875954885617</v>
       </c>
       <c r="J8">
-        <v>0.90536899999999998</v>
-      </c>
-      <c r="K8">
+        <v>0.99518899999999999</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
         <f t="shared" si="1"/>
-        <v>98417.617504812879</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="2"/>
-        <v>115200</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="3"/>
-        <v>0.85431959639594512</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="4"/>
-        <v>0.49365214660625367</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="6"/>
-        <v>6.9444444444444448E-2</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="9"/>
-        <v>-0.14568040360405488</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="0"/>
         <v>8000</v>
       </c>
       <c r="B9">
         <v>115200</v>
       </c>
       <c r="C9">
-        <v>86</v>
+        <v>200</v>
       </c>
       <c r="D9" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>0.05</v>
       </c>
       <c r="E9">
-        <f>10968</f>
-        <v>10968</v>
-      </c>
-      <c r="F9">
-        <v>12218</v>
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14500000000000002</v>
       </c>
       <c r="G9">
-        <v>11089</v>
+        <f t="shared" si="2"/>
+        <v>0.36</v>
       </c>
       <c r="H9">
-        <f>11004</f>
-        <v>11004</v>
+        <f t="shared" si="3"/>
+        <v>13773.45906051836</v>
       </c>
       <c r="I9">
-        <v>0.98478299999999996</v>
+        <f t="shared" si="4"/>
+        <v>0.11956127656699965</v>
       </c>
       <c r="J9">
-        <v>0.99271100000000001</v>
-      </c>
-      <c r="K9">
+        <v>6.3705129999999999</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.49709302325581395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
         <f t="shared" si="1"/>
-        <v>89392.282360682511</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="2"/>
-        <v>115200</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="3"/>
-        <v>0.77597467326981351</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="4"/>
-        <v>0.47213283562878106</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="5"/>
-        <v>7.688402286191498E-2</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="6"/>
-        <v>6.9444444444444448E-2</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="7"/>
-        <v>1.2383999999999997E-3</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="8"/>
-        <v>0.92083525238497799</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="9"/>
-        <v>-0.14486057911516448</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="0"/>
         <v>8000</v>
       </c>
       <c r="B10">
         <v>115200</v>
       </c>
       <c r="C10">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="D10" s="1">
-        <v>1E-4</v>
+        <v>0.1</v>
       </c>
       <c r="E10">
-        <f>10968</f>
+        <v>0.25</v>
+      </c>
+      <c r="F10" s="1">
+        <f>D10+E10*(1-D10)</f>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>3022.9685872620857</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>2.6241046764427827E-2</v>
+      </c>
+      <c r="J10">
+        <v>29.025773000000001</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="5"/>
+        <v>0.2410714285714286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>10968</v>
-      </c>
-      <c r="F10">
-        <v>15251</v>
-      </c>
-      <c r="G10">
-        <v>11104</v>
-      </c>
-      <c r="H10">
-        <f>11004</f>
-        <v>11004</v>
-      </c>
-      <c r="I10">
-        <v>1.2250810000000001</v>
-      </c>
-      <c r="J10">
-        <v>1.235385</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
-        <v>71858.105708928633</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="2"/>
-        <v>115200</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="3"/>
-        <v>0.62376827872333884</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="4"/>
-        <v>0.41752988047808764</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="5"/>
-        <v>0.55068900988004521</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="6"/>
-        <v>6.9444444444444448E-2</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="7"/>
-        <v>7.487999999999999E-3</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="8"/>
-        <v>0.44268139356985264</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="9"/>
-        <v>0.1810868851534862</v>
       </c>
     </row>
   </sheetData>
